--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2187871.143596374</v>
+        <v>2185494.516649008</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9704014.373594649</v>
+        <v>9704014.373594647</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>180.6261618334211</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>232.7071512581185</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>56.70882917873372</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>142.698283013671</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,13 +1063,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>96.97633795874938</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>23.94563726208663</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2278100992617</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.23021146256004</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>218.6880288329276</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.07916359105414</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740351</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>187.5707271127946</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>99.39152647956269</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1126.761759316041</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1126.761759316041</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>1126.761759316041</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>1126.761759316041</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>715.775854526433</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>300.0711042507219</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
@@ -4334,7 +4334,7 @@
         <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4346,7 +4346,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190805</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1852.996172847234</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1500.22751757712</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1126.761759316041</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1126.761759316041</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.9577966591559</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>602.021613731249</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>451.9049743189132</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
         <v>303.9918807365201</v>
@@ -4486,25 +4486,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1401.388391530943</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1173.398840632926</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>952.6062614893956</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1236.203140240072</v>
+        <v>1589.988596769088</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>1221.026079828676</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>835.237827230432</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>828.2923264812285</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800311</v>
+        <v>412.5875762055174</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>108.5284322030877</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2293.500441114837</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V5" t="n">
-        <v>1962.437553771266</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.668898501152</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="X5" t="n">
-        <v>1236.203140240072</v>
+        <v>1980.1279287449</v>
       </c>
       <c r="Y5" t="n">
-        <v>1236.203140240072</v>
+        <v>1589.988596769088</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>143.6627691908465</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143493</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>884.908532145821</v>
+        <v>717.8525085495377</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701986</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2102.578639884741</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1538.490223146467</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1341.861475306328</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1052.743137810166</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="W7" t="n">
-        <v>1612.258607688551</v>
+        <v>798.0586496042794</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>570.069098706262</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>349.2765195627319</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2175.739488336033</v>
+        <v>890.9810522552812</v>
       </c>
       <c r="C8" t="n">
-        <v>1806.776971395622</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="D8" t="n">
-        <v>1448.511272788871</v>
+        <v>522.0185353148695</v>
       </c>
       <c r="E8" t="n">
-        <v>1062.723020190627</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>651.7371154010195</v>
+        <v>129.2847819674218</v>
       </c>
       <c r="G8" t="n">
-        <v>236.0323651253084</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2338.417685105857</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2007.354797762287</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>1654.586142492173</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>1281.120384231093</v>
       </c>
       <c r="Y8" t="n">
-        <v>2562.339328400155</v>
+        <v>890.9810522552812</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>956.284402521753</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300791</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476953</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>648.7678147460443</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>420.778263848027</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>199.9856847044969</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,28 +5039,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7557007032921</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>482.6390612909563</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>334.7259677085632</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>187.8360202106528</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5273,22 +5273,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3777707160738</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>383.4415877881669</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>216.8470138298256</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8188146898436</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0262355463135</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5504,19 @@
         <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5735,52 +5735,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5896,16 +5896,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5981,34 +5981,34 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>593.6115863900017</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>443.4949469776659</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>443.4949469776659</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>443.4949469776659</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>276.2988476925458</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,28 +6719,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,25 +7072,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,19 +7655,19 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718132</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013352</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.4490126143855</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>30.36925650589403</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,16 +8307,16 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>98.24448441976841</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,16 +8541,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>280.1079373569281</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.4449747012147</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218872</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>38.13892827624252</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>40.9031863666612</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,16 +24841,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,7 +25087,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973922</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834034.6482973922</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516047</v>
+        <v>595255.2831516049</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516052</v>
+        <v>595255.2831516053</v>
       </c>
       <c r="D2" t="n">
         <v>595255.2831516052</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="F2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752544</v>
@@ -26344,13 +26344,13 @@
         <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="N2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752547</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
         <v>585181.2847752542</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>133113.8635467443</v>
+      </c>
+      <c r="C4" t="n">
         <v>133113.8635467444</v>
-      </c>
-      <c r="C4" t="n">
-        <v>133113.8635467443</v>
       </c>
       <c r="D4" t="n">
         <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719637</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719731</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719678</v>
+        <v>7507.368461719672</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719719</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.368461719732</v>
+      </c>
+      <c r="N4" t="n">
+        <v>7507.36846171973</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7507.368461719677</v>
+      </c>
+      <c r="P4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7507.368461719667</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7507.368461719668</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26522,46 +26522,46 @@
         <v>-745548.1364109038</v>
       </c>
       <c r="C6" t="n">
-        <v>369203.6471650159</v>
+        <v>369203.6471650162</v>
       </c>
       <c r="D6" t="n">
-        <v>369203.6471650164</v>
+        <v>369203.6471650162</v>
       </c>
       <c r="E6" t="n">
-        <v>-30934.05513491837</v>
+        <v>-30968.79306035399</v>
       </c>
       <c r="F6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641917</v>
       </c>
       <c r="G6" t="n">
-        <v>476551.3864896276</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="H6" t="n">
-        <v>476551.3864896276</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="I6" t="n">
-        <v>476551.3864896276</v>
+        <v>476516.648564192</v>
       </c>
       <c r="J6" t="n">
-        <v>308946.2086796451</v>
+        <v>308911.4707542095</v>
       </c>
       <c r="K6" t="n">
-        <v>476551.3864896276</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="L6" t="n">
-        <v>476551.3864896277</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="M6" t="n">
-        <v>343944.0927607011</v>
+        <v>343909.3548352654</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896277</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896272</v>
+        <v>476516.6485641917</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26790,10 +26790,10 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26969,7 +26969,7 @@
         <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>120.3923907289843</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27585,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>53.8158470784725</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>9.001083493736772</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>108.346967114791</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,13 +27783,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>4.581234460824248</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>262.5773610745044</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>183.7907424631437</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>108.4279735176737</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,16 +28062,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>67.83496950366336</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>433.9798411722591</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>362.1804684129204</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486393</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,19 +33023,19 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33044,7 +33044,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>412.0358695391854</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>521.8736946105084</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>93.34947739681148</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>347.9240135433006</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35261,16 +35261,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>529.7874664804604</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>291.8458072502408</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>224.3390294385614</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041949</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,13 +36601,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36671,19 +36671,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36692,7 +36692,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
